--- a/Exposiciones/S1M12019_Exposiciones.xlsx
+++ b/Exposiciones/S1M12019_Exposiciones.xlsx
@@ -16,6 +16,42 @@
 </workbook>
 </file>
 
+<file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <authors>
+    <author>Autor</author>
+  </authors>
+  <commentList>
+    <comment ref="G9" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Autor:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+1) Tiene mal el periodo.
+2) Documento pobre
+3) No tiene bibliografía</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="19">
   <si>
@@ -83,7 +119,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="ddd\,\ dd/mmm/yyyy"/>
   </numFmts>
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -113,6 +149,19 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="Tahoma"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="Tahoma"/>
+      <charset val="1"/>
     </font>
   </fonts>
   <fills count="3">
@@ -591,12 +640,12 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:N30"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="7" topLeftCell="A8" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F1" sqref="F1"/>
+      <pane ySplit="7" topLeftCell="A14" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="M23" sqref="M23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -742,16 +791,30 @@
       <c r="D9" s="17"/>
       <c r="E9" s="17"/>
       <c r="F9" s="17"/>
-      <c r="G9" s="15"/>
-      <c r="H9" s="17"/>
-      <c r="I9" s="17"/>
-      <c r="J9" s="17"/>
-      <c r="K9" s="17"/>
-      <c r="L9" s="17"/>
-      <c r="M9" s="19"/>
+      <c r="G9" s="15">
+        <v>6</v>
+      </c>
+      <c r="H9" s="17">
+        <v>10</v>
+      </c>
+      <c r="I9" s="17">
+        <v>9</v>
+      </c>
+      <c r="J9" s="17">
+        <v>4</v>
+      </c>
+      <c r="K9" s="17">
+        <v>3</v>
+      </c>
+      <c r="L9" s="17">
+        <v>3</v>
+      </c>
+      <c r="M9" s="19">
+        <v>3</v>
+      </c>
       <c r="N9" s="19">
         <f>SUM(G9:M9)</f>
-        <v>0</v>
+        <v>38</v>
       </c>
     </row>
     <row r="10" spans="1:14" s="20" customFormat="1" x14ac:dyDescent="0.25">
@@ -871,16 +934,28 @@
       <c r="D16" s="17"/>
       <c r="E16" s="17"/>
       <c r="F16" s="17"/>
-      <c r="G16" s="15"/>
-      <c r="H16" s="17"/>
-      <c r="I16" s="17"/>
-      <c r="J16" s="17"/>
-      <c r="K16" s="17"/>
+      <c r="G16" s="15">
+        <v>7</v>
+      </c>
+      <c r="H16" s="17">
+        <v>10</v>
+      </c>
+      <c r="I16" s="17">
+        <v>8</v>
+      </c>
+      <c r="J16" s="17">
+        <v>4</v>
+      </c>
+      <c r="K16" s="17">
+        <v>4</v>
+      </c>
       <c r="L16" s="17"/>
-      <c r="M16" s="19"/>
+      <c r="M16" s="19">
+        <v>3</v>
+      </c>
       <c r="N16" s="19">
         <f t="shared" ref="N16:N18" si="0">SUM(G16:M16)</f>
-        <v>0</v>
+        <v>36</v>
       </c>
     </row>
     <row r="17" spans="1:14" s="20" customFormat="1" x14ac:dyDescent="0.25">
@@ -1000,16 +1075,28 @@
       <c r="D23" s="17"/>
       <c r="E23" s="17"/>
       <c r="F23" s="17"/>
-      <c r="G23" s="15"/>
-      <c r="H23" s="17"/>
-      <c r="I23" s="17"/>
-      <c r="J23" s="17"/>
-      <c r="K23" s="17"/>
+      <c r="G23" s="15">
+        <v>7</v>
+      </c>
+      <c r="H23" s="17">
+        <v>10</v>
+      </c>
+      <c r="I23" s="17">
+        <v>7</v>
+      </c>
+      <c r="J23" s="17">
+        <v>4</v>
+      </c>
+      <c r="K23" s="17">
+        <v>4</v>
+      </c>
       <c r="L23" s="17"/>
-      <c r="M23" s="19"/>
+      <c r="M23" s="19">
+        <v>3</v>
+      </c>
       <c r="N23" s="19">
         <f t="shared" ref="N23:N25" si="1">SUM(G23:M23)</f>
-        <v>0</v>
+        <v>35</v>
       </c>
     </row>
     <row r="24" spans="1:14" s="20" customFormat="1" x14ac:dyDescent="0.25">
@@ -1133,5 +1220,6 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="200" verticalDpi="200" r:id="rId1"/>
+  <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>